--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hectorbahamonde/research/Fondecyt_Ini_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E05D6C-9189-E942-986D-2164826A58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53971844-4848-754D-99D2-944547A870F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{027DDEF3-C269-694A-B92F-4FADB4D5CBA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Personal" sheetId="1" r:id="rId1"/>
+    <sheet name="Viajes" sheetId="2" r:id="rId2"/>
+    <sheet name="Gastos" sheetId="3" r:id="rId3"/>
+    <sheet name="Bienes" sheetId="4" r:id="rId4"/>
+    <sheet name="Admin" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -387,4 +391,56 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10E5872-E57E-E74D-BD3A-7DD99C81C157}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9137B334-DB12-F044-B5B0-217E4F906DC6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A1F64D-88A6-2045-8803-8418F440010A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0AD5CD-9605-2F48-8AEB-432F4BABECC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>